--- a/AT Upload-edited-FINAL.xlsx
+++ b/AT Upload-edited-FINAL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\brian.umandap\Desktop\active_transport\active_transport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8FFBB513-C21A-467C-9E64-3A01AAA83237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{177333F4-E8FE-45DC-84E2-23C6B96A7A92}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
@@ -27037,7 +27037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
@@ -27068,7 +27068,7 @@
         <v>24</v>
       </c>
       <c r="B3">
-        <f t="shared" ref="B3:C28" si="0">B2+1</f>
+        <f t="shared" ref="B3:B28" si="0">B2+1</f>
         <v>2</v>
       </c>
     </row>
@@ -27306,8 +27306,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
